--- a/data/exported/coin.xlsx
+++ b/data/exported/coin.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,10 +406,510 @@
       <c r="A1" t="str">
         <v>item</v>
       </c>
+      <c r="B1" t="str">
+        <v>2020</v>
+      </c>
+      <c r="C1" t="str">
+        <v>2021</v>
+      </c>
+      <c r="D1" t="str">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="B2">
+        <v>1061850000000</v>
+      </c>
+      <c r="C2">
+        <v>7123478000000</v>
+      </c>
+      <c r="D2">
+        <v>4425021000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Restricted cash</v>
+      </c>
+      <c r="B3">
+        <v>30787000000</v>
+      </c>
+      <c r="C3">
+        <v>30951000000</v>
+      </c>
+      <c r="D3">
+        <v>25873000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Customer custodial funds</v>
+      </c>
+      <c r="B4">
+        <v>3763392000000</v>
+      </c>
+      <c r="C4">
+        <v>10526233000000</v>
+      </c>
+      <c r="D4">
+        <v>5041119000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>USDC</v>
+      </c>
+      <c r="B5">
+        <v>48938000000</v>
+      </c>
+      <c r="C5">
+        <v>100096000000</v>
+      </c>
+      <c r="D5">
+        <v>861149000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Accounts and loans receivable, net of allowance</v>
+      </c>
+      <c r="B6">
+        <v>189471000000</v>
+      </c>
+      <c r="C6">
+        <v>396025000000</v>
+      </c>
+      <c r="D6">
+        <v>404376000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Income tax receivable</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>61231000000</v>
+      </c>
+      <c r="D7">
+        <v>60441000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Prepaid expenses and other current assets</v>
+      </c>
+      <c r="B8">
+        <v>39510000000</v>
+      </c>
+      <c r="C8">
+        <v>135849000000</v>
+      </c>
+      <c r="D8">
+        <v>217048000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Total current assets</v>
+      </c>
+      <c r="B9">
+        <v>5133948000000</v>
+      </c>
+      <c r="C9">
+        <v>18373863000000</v>
+      </c>
+      <c r="D9">
+        <v>86448215000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Crypto assets held</v>
+      </c>
+      <c r="B10">
+        <v>316094000000</v>
+      </c>
+      <c r="C10">
+        <v>988193000000</v>
+      </c>
+      <c r="D10">
+        <v>424393000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Lease right-of-use assets</v>
+      </c>
+      <c r="B11">
+        <v>100845000000</v>
+      </c>
+      <c r="C11">
+        <v>98385000000</v>
+      </c>
+      <c r="D11">
+        <v>69357000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Property and equipment, net</v>
+      </c>
+      <c r="B12">
+        <v>49250000000</v>
+      </c>
+      <c r="C12">
+        <v>59230000000</v>
+      </c>
+      <c r="D12">
+        <v>171853000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Goodwill</v>
+      </c>
+      <c r="B13">
+        <v>77212000000</v>
+      </c>
+      <c r="C13">
+        <v>625758000000</v>
+      </c>
+      <c r="D13">
+        <v>1073906000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Intangible assets, net</v>
+      </c>
+      <c r="B14">
+        <v>60825000000</v>
+      </c>
+      <c r="C14">
+        <v>176689000000</v>
+      </c>
+      <c r="D14">
+        <v>135429000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Other non-current assets</v>
+      </c>
+      <c r="B15">
+        <v>117240000000</v>
+      </c>
+      <c r="C15">
+        <v>952307000000</v>
+      </c>
+      <c r="D15">
+        <v>1401720000000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Total assets</v>
+      </c>
+      <c r="B16">
+        <v>5855414000000</v>
+      </c>
+      <c r="C16">
+        <v>21274425000000</v>
+      </c>
+      <c r="D16">
+        <v>89724873000000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Custodial funds due to customers</v>
+      </c>
+      <c r="B17">
+        <v>3849468000000</v>
+      </c>
+      <c r="C17">
+        <v>10480612000000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Accounts payable</v>
+      </c>
+      <c r="B18">
+        <v>12031000000</v>
+      </c>
+      <c r="C18">
+        <v>39833000000</v>
+      </c>
+      <c r="D18">
+        <v>56043000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Accrued expenses</v>
+      </c>
+      <c r="B19">
+        <v>88783000000</v>
+      </c>
+      <c r="C19">
+        <v>439559000000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Crypto asset borrowings</v>
+      </c>
+      <c r="B20">
+        <v>271303000000</v>
+      </c>
+      <c r="C20">
+        <v>426665000000</v>
+      </c>
+      <c r="D20">
+        <v>151505000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Lease liabilities, current</v>
+      </c>
+      <c r="B21">
+        <v>25270000000</v>
+      </c>
+      <c r="C21">
+        <v>32366000000</v>
+      </c>
+      <c r="D21">
+        <v>33734000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Total current liabilities</v>
+      </c>
+      <c r="B22">
+        <v>4246855000000</v>
+      </c>
+      <c r="C22">
+        <v>11419035000000</v>
+      </c>
+      <c r="D22">
+        <v>80815293000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Lease liabilities, non-current</v>
+      </c>
+      <c r="B23">
+        <v>82508000000</v>
+      </c>
+      <c r="C23">
+        <v>74078000000</v>
+      </c>
+      <c r="D23">
+        <v>42044000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Long-term debt</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>3384795000000</v>
+      </c>
+      <c r="D24">
+        <v>3393448000000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>14828000000</v>
+      </c>
+      <c r="D25">
+        <v>19531000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Total liabilities</v>
+      </c>
+      <c r="B26">
+        <v>4329363000000</v>
+      </c>
+      <c r="C26">
+        <v>14892736000000</v>
+      </c>
+      <c r="D26">
+        <v>84270316000000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Convertible preferred stock, $0.00001 par value; 500,000 and 126,605 shares authorized at December 31, 2021 and December 31, 2020, respectively; zero and 112,878 shares issued and outstanding at December 31, 2021 and December 31, 2020, respectively; aggregate liquidation preference of $0 and $578,750 at December 31, 2021 and December 31, 2020, respectively</v>
+      </c>
+      <c r="B27">
+        <v>562467000000</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Additional paid-in capital</v>
+      </c>
+      <c r="B28">
+        <v>231024000000</v>
+      </c>
+      <c r="C28">
+        <v>2034658000000</v>
+      </c>
+      <c r="D28">
+        <v>3767686000000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Accumulated other comprehensive (loss) income</v>
+      </c>
+      <c r="B29">
+        <v>6256000000</v>
+      </c>
+      <c r="C29">
+        <v>-3395000000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Retained earnings</v>
+      </c>
+      <c r="B30">
+        <v>726304000000</v>
+      </c>
+      <c r="C30">
+        <v>4350424000000</v>
+      </c>
+      <c r="D30">
+        <v>1725475000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Total stockholders’ equity</v>
+      </c>
+      <c r="B31">
+        <v>963584000000</v>
+      </c>
+      <c r="C31">
+        <v>6381689000000</v>
+      </c>
+      <c r="D31">
+        <v>5454557000000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Total liabilities, convertible preferred stock, and stockholders’ equity</v>
+      </c>
+      <c r="B32">
+        <v>5855414000000</v>
+      </c>
+      <c r="C32">
+        <v>21274425000000</v>
+      </c>
+      <c r="D32">
+        <v>89724873000000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Common stock</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Customer crypto assets</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>75413188000000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Customer custodial cash liabilities</v>
+      </c>
+      <c r="C35">
+        <v>10480612000000</v>
+      </c>
+      <c r="D35">
+        <v>4829587000000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Customer crypto liabilities</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>75413188000000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Accrued expenses and other current liabilities</v>
+      </c>
+      <c r="C37">
+        <v>439559000000</v>
+      </c>
+      <c r="D37">
+        <v>331236000000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Accumulated other comprehensive loss</v>
+      </c>
+      <c r="C38">
+        <v>-3395000000</v>
+      </c>
+      <c r="D38">
+        <v>-38606000000</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D38"/>
   </ignoredErrors>
 </worksheet>
 </file>